--- a/templates/walkthroughs/Gold_Walkthrough.xlsx
+++ b/templates/walkthroughs/Gold_Walkthrough.xlsx
@@ -26,7 +26,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -83,6 +83,14 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="001F4E79"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <i val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
       <color rgb="00006100"/>
       <sz val="12"/>
     </font>
@@ -92,8 +100,7 @@
       <sz val="12"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="12"/>
+      <color rgb="00C00000"/>
     </font>
   </fonts>
   <fills count="6">
@@ -146,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -168,6 +175,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -742,7 +752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,124 +766,159 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>REFERENCE - GOLD PATTERNS</t>
+          <t>REFERENCE - GOLD LAYER RULES</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="inlineStr">
         <is>
-          <t>WHAT BELONGS IN GOLD</t>
+          <t>THE MULTI-SOURCE TEST</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="15" t="inlineStr">
+        <is>
+          <t>"Does this require MULTIPLE source systems OR business modeling (dimensions/facts)?"</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="inlineStr">
+        <is>
+          <t>✅ ALLOWED IN GOLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="17" t="inlineStr">
         <is>
           <t>✅ Dimensions with surrogate keys</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="17" t="inlineStr">
         <is>
           <t>✅ SCD2 history tracking</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="17" t="inlineStr">
         <is>
           <t>✅ DateDimension generation</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>✅ Fact tables with SK lookups</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>✅ UNION multiple sources</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>✅ Business KPIs</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>✅ Aggregations</t>
+      <c r="A10" s="17" t="inlineStr">
+        <is>
+          <t>✅ Fact tables with dimension lookups</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="17" t="inlineStr">
+        <is>
+          <t>✅ UNION multiple source systems</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="inlineStr">
-        <is>
-          <t>ANTI-PATTERNS</t>
+      <c r="A12" s="17" t="inlineStr">
+        <is>
+          <t>✅ JOIN across source systems</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>❌ Silver-level cleaning</t>
+      <c r="A13" s="17" t="inlineStr">
+        <is>
+          <t>✅ Business KPIs and calculated metrics</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>❌ SCD2 on facts</t>
+      <c r="A14" s="17" t="inlineStr">
+        <is>
+          <t>✅ Aggregations (daily, monthly, etc.)</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>❌ SCD2 without prior dedup</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>❌ Undefined grain</t>
+      <c r="A15" s="17" t="inlineStr">
+        <is>
+          <t>✅ Semantic layer metrics</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="18" t="inlineStr">
+        <is>
+          <t>❌ NOT ALLOWED IN GOLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="19" t="inlineStr">
+        <is>
+          <t>❌ Silver-level cleaning (data should arrive clean)</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="inlineStr">
-        <is>
-          <t>GRAIN CHECKLIST</t>
+      <c r="A19" s="19" t="inlineStr">
+        <is>
+          <t>❌ SCD2 on fact tables</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="19" t="inlineStr">
+        <is>
+          <t>❌ Undefined grain on fact tables</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="19" t="inlineStr">
+        <is>
+          <t>❌ SCD2 without prior deduplication</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="14" t="inlineStr">
+        <is>
+          <t>GRAIN CHECKLIST (CRITICAL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="15" t="inlineStr">
+        <is>
+          <t>Every fact table MUST have a grain statement: 'One row = one ___ per ___'</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>☐ 'One row = one ___' statement defined</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>☐ Grain columns documented</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>☐ Duplicate detection validation added</t>
         </is>
